--- a/medicament/Form/Form1.xlsx
+++ b/medicament/Form/Form1.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Form2 Лекарственное обеспечение" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -16,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
-    <t>Данные о лекарственном обеспечении по состоянию на ________ (число, месяц, год)</t>
-  </si>
-  <si>
     <t>Свод по Ярославской области</t>
   </si>
   <si>
@@ -85,9 +85,6 @@
     <t>Исполнитель:</t>
   </si>
   <si>
-    <t>ФИО</t>
-  </si>
-  <si>
     <t>Подпись</t>
   </si>
   <si>
@@ -95,6 +92,12 @@
   </si>
   <si>
     <t>Мужчины старше 60 лет, женщины старше 55</t>
+  </si>
+  <si>
+    <t>Данные о лекарственном обеспечении по состоянию на</t>
+  </si>
+  <si>
+    <t>Байков В.А.</t>
   </si>
 </sst>
 </file>
@@ -810,8 +813,36 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1107,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,16 +1155,17 @@
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1144,14 +1176,14 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="6"/>
@@ -1163,7 +1195,7 @@
       <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="9"/>
@@ -1174,36 +1206,36 @@
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1216,7 +1248,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1224,19 +1256,19 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1248,22 +1280,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1271,7 +1303,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1285,7 +1317,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="18"/>
@@ -1297,7 +1329,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1310,34 +1342,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
         <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/medicament/Form/Form1.xlsx
+++ b/medicament/Form/Form1.xlsx
@@ -97,7 +97,7 @@
     <t>Данные о лекарственном обеспечении по состоянию на</t>
   </si>
   <si>
-    <t>Байков В.А.</t>
+    <t>ФИO</t>
   </si>
 </sst>
 </file>
@@ -1140,9 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1155,7 +1153,11 @@
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
@@ -1175,9 +1177,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
